--- a/protokolle/zeitaufzeichnung/weber.xlsx
+++ b/protokolle/zeitaufzeichnung/weber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juergen\repositories\SimpleQ\protokolle\zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA01AB5-BE29-4CFD-AEA3-23F781A1E3A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911E747-0296-48ED-A6F9-84BA40E19F74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="750" windowWidth="25365" windowHeight="14850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diplomprojekt" sheetId="1" r:id="rId1"/>
@@ -861,9 +861,6 @@
     <xf numFmtId="21" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="46" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -886,6 +883,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,10 +1257,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2636,11 +2636,11 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="12">
         <v>8.5923611111111118</v>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2672,16 +2672,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6"/>
@@ -2690,7 +2690,7 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="6"/>
@@ -2699,7 +2699,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6"/>
@@ -2716,14 +2716,14 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2731,165 +2731,165 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43403</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>43466</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>7.0833333333333331E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>43467</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>0.20138888888888887</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>43469</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>0.10277777777777779</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>43469</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>43495</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>43496</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>0.17847222222222223</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>43497</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>7.013888888888889E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>43508</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>0.24513888888888888</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>43509</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>0.16111111111111112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>43543</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>8.6805555555555566E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>43547</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>43548</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>43550</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <f>SUM(C8:C21)</f>
         <v>1.4277777777777778</v>
       </c>
